--- a/fastexcel-test/src/test/resources/fill/style.xlsx
+++ b/fastexcel-test/src/test/resources/fill/style.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/src/test/resources/fill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Documents/GitHub/fastexcel/fastexcel-test/src/test/resources/fill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B97915-0560-E84F-9B3B-F0260607EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EF72B7-5AAF-0447-92A8-08C2160140D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="6460" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2240" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,29 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>复杂</t>
-  </si>
-  <si>
-    <t>忽略</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>空{.empty}</t>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,11 +36,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.name}今年{.number}岁了</t>
+    <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\{.name\}忽略，{.name}</t>
+    <t>Empty{.empty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complex</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignored</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.name} is {.number} years old this year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\{.name\} ignored，{.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +146,12 @@
       <sz val="11"/>
       <color theme="7" tint="0.59999389629810485"/>
       <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -538,7 +549,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -550,19 +561,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -570,13 +581,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>10</v>
